--- a/doc/cash.xlsx
+++ b/doc/cash.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\marketing.com\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="9300" windowHeight="4755" tabRatio="0"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$2:$F$234</definedName>
     <definedName name="cash" localSheetId="0">Лист1!$A$2:$AX$2</definedName>
   </definedNames>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -80,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="900">
   <si>
     <t>НПП</t>
   </si>
@@ -2732,13 +2737,61 @@
   </si>
   <si>
     <t>return_20</t>
+  </si>
+  <si>
+    <t>3130.35</t>
+  </si>
+  <si>
+    <t>14919.84</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>305.10</t>
+  </si>
+  <si>
+    <t>15469.36</t>
+  </si>
+  <si>
+    <t>12875.55</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>27.34</t>
+  </si>
+  <si>
+    <t>2090.92</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>9038.46</t>
+  </si>
+  <si>
+    <t>215.83</t>
+  </si>
+  <si>
+    <t>15840.34</t>
+  </si>
+  <si>
+    <t>89.33</t>
+  </si>
+  <si>
+    <t>3466.11</t>
+  </si>
+  <si>
+    <t>2022-02-22_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -2820,7 +2873,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2848,6 +2901,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2922,6 +2976,14 @@
       <rgbColor rgb="00D9853E"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2972,7 +3034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3004,9 +3066,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3038,6 +3101,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3213,35 +3277,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="47" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="47" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="10" customFormat="1">
+    <row r="1" spans="1:52" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>865</v>
       </c>
@@ -3328,7 +3409,7 @@
       <c r="AT1" s="13"/>
       <c r="AU1" s="13"/>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3477,14 +3558,163 @@
         <v>864</v>
       </c>
     </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44614</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>884</v>
+      </c>
+      <c r="E4" t="s">
+        <v>885</v>
+      </c>
+      <c r="F4" t="s">
+        <v>886</v>
+      </c>
+      <c r="G4" t="s">
+        <v>887</v>
+      </c>
+      <c r="H4" t="s">
+        <v>888</v>
+      </c>
+      <c r="I4" t="s">
+        <v>886</v>
+      </c>
+      <c r="J4" s="15">
+        <v>32021</v>
+      </c>
+      <c r="K4" t="s">
+        <v>889</v>
+      </c>
+      <c r="L4" t="s">
+        <v>886</v>
+      </c>
+      <c r="M4" t="s">
+        <v>886</v>
+      </c>
+      <c r="N4" t="s">
+        <v>890</v>
+      </c>
+      <c r="O4" t="s">
+        <v>886</v>
+      </c>
+      <c r="P4" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>886</v>
+      </c>
+      <c r="R4" t="s">
+        <v>886</v>
+      </c>
+      <c r="S4" t="s">
+        <v>886</v>
+      </c>
+      <c r="U4" t="s">
+        <v>891</v>
+      </c>
+      <c r="V4" t="s">
+        <v>892</v>
+      </c>
+      <c r="W4" t="s">
+        <v>886</v>
+      </c>
+      <c r="X4" t="s">
+        <v>886</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>886</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>893</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>32021</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>894</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>895</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>896</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>897</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>898</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>886</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>899</v>
+      </c>
+      <c r="AX4">
+        <v>4</v>
+      </c>
+      <c r="AY4">
+        <v>161</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AS1:AU1"/>
     <mergeCell ref="X1:Z1"/>
@@ -3493,6 +3723,12 @@
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3500,14 +3736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" customWidth="1"/>
@@ -3519,7 +3755,7 @@
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3536,7 +3772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3563,7 +3799,7 @@
         <v>update names set fix_price =153.9 where id =83;</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15">
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3590,7 +3826,7 @@
         <v>update names set fix_price =534.7 where id =97;</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15">
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -3617,7 +3853,7 @@
         <v>update names set fix_price =109.9 where id =129;</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15">
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
@@ -3644,7 +3880,7 @@
         <v>update names set fix_price =172.95 where id =135;</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15">
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
@@ -3671,7 +3907,7 @@
         <v>update names set fix_price =92.02 where id =139;</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
@@ -3698,7 +3934,7 @@
         <v>update names set fix_price =109 where id =140;</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="15">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
@@ -3725,7 +3961,7 @@
         <v>update names set fix_price =171.8 where id =141;</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
@@ -3752,7 +3988,7 @@
         <v>update names set fix_price =119.2 where id =142;</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -3779,7 +4015,7 @@
         <v>update names set fix_price =138.95 where id =145;</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
@@ -3806,7 +4042,7 @@
         <v>update names set fix_price =197.25 where id =146;</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
@@ -3833,7 +4069,7 @@
         <v>update names set fix_price =172.7 where id =147;</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15">
+    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
@@ -3860,7 +4096,7 @@
         <v>update names set fix_price =198.2 where id =148;</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15">
+    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
@@ -3887,7 +4123,7 @@
         <v>update names set fix_price =203.56 where id =149;</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15">
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
@@ -3914,7 +4150,7 @@
         <v>update names set fix_price =432.1 where id =150;</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15">
+    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>62</v>
       </c>
@@ -3941,7 +4177,7 @@
         <v>update names set fix_price =160.55 where id =151;</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15">
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
@@ -3968,7 +4204,7 @@
         <v>update names set fix_price =62.3 where id =153;</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15">
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>70</v>
       </c>
@@ -3995,7 +4231,7 @@
         <v>update names set fix_price =47.1 where id =157;</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15">
+    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
@@ -4022,7 +4258,7 @@
         <v>update names set fix_price =86.5 where id =158;</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15">
+    <row r="21" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>78</v>
       </c>
@@ -4049,7 +4285,7 @@
         <v>update names set fix_price =65.3 where id =160;</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15">
+    <row r="22" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>82</v>
       </c>
@@ -4076,7 +4312,7 @@
         <v>update names set fix_price =49.65 where id =163;</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15">
+    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>86</v>
       </c>
@@ -4103,7 +4339,7 @@
         <v>update names set fix_price =90.9 where id =165;</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15">
+    <row r="24" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>90</v>
       </c>
@@ -4130,7 +4366,7 @@
         <v>update names set fix_price =147.85 where id =459;</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15">
+    <row r="25" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>94</v>
       </c>
@@ -4157,7 +4393,7 @@
         <v>update names set fix_price =144.5 where id =460;</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15">
+    <row r="26" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>98</v>
       </c>
@@ -4184,7 +4420,7 @@
         <v>update names set fix_price =213.5 where id =461;</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15">
+    <row r="27" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>102</v>
       </c>
@@ -4211,7 +4447,7 @@
         <v>update names set fix_price =150.72 where id =464;</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15">
+    <row r="28" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>106</v>
       </c>
@@ -4238,7 +4474,7 @@
         <v>update names set fix_price =165.15 where id =465;</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15">
+    <row r="29" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>110</v>
       </c>
@@ -4265,7 +4501,7 @@
         <v>update names set fix_price =91.6 where id =466;</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15">
+    <row r="30" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>114</v>
       </c>
@@ -4292,7 +4528,7 @@
         <v>update names set fix_price =58.8 where id =467;</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15">
+    <row r="31" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>118</v>
       </c>
@@ -4319,7 +4555,7 @@
         <v>update names set fix_price =94.1 where id =468;</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15">
+    <row r="32" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>122</v>
       </c>
@@ -4346,7 +4582,7 @@
         <v>update names set fix_price =65 where id =469;</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15">
+    <row r="33" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>125</v>
       </c>
@@ -4373,7 +4609,7 @@
         <v>update names set fix_price =85.3 where id =470;</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15">
+    <row r="34" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>129</v>
       </c>
@@ -4400,7 +4636,7 @@
         <v>update names set fix_price =43897 where id =473;</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="15">
+    <row r="35" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>132</v>
       </c>
@@ -4427,7 +4663,7 @@
         <v>update names set fix_price =43962 where id =474;</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="15">
+    <row r="36" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>135</v>
       </c>
@@ -4454,7 +4690,7 @@
         <v>update names set fix_price =43973 where id =475;</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15">
+    <row r="37" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>138</v>
       </c>
@@ -4481,7 +4717,7 @@
         <v>update names set fix_price =47.2 where id =476;</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="15">
+    <row r="38" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>142</v>
       </c>
@@ -4508,7 +4744,7 @@
         <v>update names set fix_price =111.5 where id =496;</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="15">
+    <row r="39" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>146</v>
       </c>
@@ -4535,7 +4771,7 @@
         <v>update names set fix_price =406.1 where id =700;</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="15">
+    <row r="40" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>150</v>
       </c>
@@ -4562,7 +4798,7 @@
         <v>update names set fix_price =192 where id =733;</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="15">
+    <row r="41" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>153</v>
       </c>
@@ -4589,7 +4825,7 @@
         <v>update names set fix_price =552 where id =734;</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15">
+    <row r="42" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>156</v>
       </c>
@@ -4616,7 +4852,7 @@
         <v>update names set fix_price =251 where id =735;</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="15">
+    <row r="43" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>159</v>
       </c>
@@ -4643,7 +4879,7 @@
         <v>update names set fix_price =656 where id =736;</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15">
+    <row r="44" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>162</v>
       </c>
@@ -4670,7 +4906,7 @@
         <v>update names set fix_price =462 where id =739;</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="15">
+    <row r="45" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>165</v>
       </c>
@@ -4697,7 +4933,7 @@
         <v>update names set fix_price =856 where id =740;</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="15">
+    <row r="46" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>168</v>
       </c>
@@ -4724,7 +4960,7 @@
         <v>update names set fix_price =188.24 where id =746;</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="15">
+    <row r="47" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>172</v>
       </c>
@@ -4751,7 +4987,7 @@
         <v>update names set fix_price =105.3 where id =749;</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="15">
+    <row r="48" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>176</v>
       </c>
@@ -4778,7 +5014,7 @@
         <v>update names set fix_price =135.23 where id =750;</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15">
+    <row r="49" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>180</v>
       </c>
@@ -4805,7 +5041,7 @@
         <v>update names set fix_price =116 where id =751;</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="15">
+    <row r="50" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>183</v>
       </c>
@@ -4832,7 +5068,7 @@
         <v>update names set fix_price =228.39 where id =752;</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="15">
+    <row r="51" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>187</v>
       </c>
@@ -4859,7 +5095,7 @@
         <v>update names set fix_price =964 where id =1278;</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15">
+    <row r="52" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>190</v>
       </c>
@@ -4886,7 +5122,7 @@
         <v>update names set fix_price =2242.8 where id =1317;</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="15">
+    <row r="53" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>194</v>
       </c>
@@ -4913,7 +5149,7 @@
         <v>update names set fix_price =177 where id =1623;</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15">
+    <row r="54" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>197</v>
       </c>
@@ -4940,7 +5176,7 @@
         <v>update names set fix_price =1094.1 where id =1631;</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15">
+    <row r="55" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>201</v>
       </c>
@@ -4967,7 +5203,7 @@
         <v>update names set fix_price =716.9 where id =2131;</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15">
+    <row r="56" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>205</v>
       </c>
@@ -4994,7 +5230,7 @@
         <v>update names set fix_price =566.6 where id =2132;</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15">
+    <row r="57" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>209</v>
       </c>
@@ -5021,7 +5257,7 @@
         <v>update names set fix_price =77.8 where id =3007;</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="15">
+    <row r="58" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>213</v>
       </c>
@@ -5048,7 +5284,7 @@
         <v>update names set fix_price =90.5 where id =3008;</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15">
+    <row r="59" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>217</v>
       </c>
@@ -5075,7 +5311,7 @@
         <v>update names set fix_price =161.75 where id =3009;</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15">
+    <row r="60" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>221</v>
       </c>
@@ -5102,7 +5338,7 @@
         <v>update names set fix_price =39.5 where id =3223;</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="15">
+    <row r="61" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>225</v>
       </c>
@@ -5129,7 +5365,7 @@
         <v>update names set fix_price =772.7 where id =3794;</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="15">
+    <row r="62" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>229</v>
       </c>
@@ -5156,7 +5392,7 @@
         <v>update names set fix_price =1167 where id =3795;</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="15">
+    <row r="63" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>232</v>
       </c>
@@ -5183,7 +5419,7 @@
         <v>update names set fix_price =1085.6 where id =3796;</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="15">
+    <row r="64" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>236</v>
       </c>
@@ -5210,7 +5446,7 @@
         <v>update names set fix_price =170 where id =3903;</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15">
+    <row r="65" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>239</v>
       </c>
@@ -5237,7 +5473,7 @@
         <v>update names set fix_price =195 where id =3904;</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="15">
+    <row r="66" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>242</v>
       </c>
@@ -5264,7 +5500,7 @@
         <v>update names set fix_price =115 where id =3905;</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="15">
+    <row r="67" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>245</v>
       </c>
@@ -5291,7 +5527,7 @@
         <v>update names set fix_price =155 where id =3906;</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="15">
+    <row r="68" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>248</v>
       </c>
@@ -5318,7 +5554,7 @@
         <v>update names set fix_price =892.4 where id =4129;</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="15">
+    <row r="69" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>252</v>
       </c>
@@ -5345,7 +5581,7 @@
         <v>update names set fix_price =245.3 where id =4130;</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15">
+    <row r="70" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>256</v>
       </c>
@@ -5372,7 +5608,7 @@
         <v>update names set fix_price =734.1 where id =4131;</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="15">
+    <row r="71" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>260</v>
       </c>
@@ -5399,7 +5635,7 @@
         <v>update names set fix_price =489.4 where id =4132;</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15">
+    <row r="72" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>264</v>
       </c>
@@ -5426,7 +5662,7 @@
         <v>update names set fix_price =2590 where id =4150;</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="15">
+    <row r="73" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>267</v>
       </c>
@@ -5453,7 +5689,7 @@
         <v>update names set fix_price =1893.8 where id =4154;</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="15">
+    <row r="74" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>271</v>
       </c>
@@ -5480,7 +5716,7 @@
         <v>update names set fix_price =999 where id =4715;</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="15">
+    <row r="75" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>274</v>
       </c>
@@ -5507,7 +5743,7 @@
         <v>update names set fix_price =370.5 where id =5104;</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="15">
+    <row r="76" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>278</v>
       </c>
@@ -5534,7 +5770,7 @@
         <v>update names set fix_price =110.8 where id =5126;</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="15">
+    <row r="77" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>282</v>
       </c>
@@ -5561,7 +5797,7 @@
         <v>update names set fix_price =325 where id =5387;</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="15">
+    <row r="78" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>285</v>
       </c>
@@ -5588,7 +5824,7 @@
         <v>update names set fix_price =767.5 where id =6093;</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="15">
+    <row r="79" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>289</v>
       </c>
@@ -5615,7 +5851,7 @@
         <v>update names set fix_price =767.5 where id =6094;</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="15">
+    <row r="80" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>292</v>
       </c>
@@ -5642,7 +5878,7 @@
         <v>update names set fix_price =160 where id =6129;</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="15">
+    <row r="81" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>295</v>
       </c>
@@ -5669,7 +5905,7 @@
         <v>update names set fix_price =115.5 where id =6130;</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="15">
+    <row r="82" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>299</v>
       </c>
@@ -5696,7 +5932,7 @@
         <v>update names set fix_price =138.32 where id =6131;</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="15">
+    <row r="83" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>303</v>
       </c>
@@ -5723,7 +5959,7 @@
         <v>update names set fix_price =188.55 where id =6132;</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="15">
+    <row r="84" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>307</v>
       </c>
@@ -5750,7 +5986,7 @@
         <v>update names set fix_price =111.9 where id =6153;</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="15">
+    <row r="85" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>311</v>
       </c>
@@ -5777,7 +6013,7 @@
         <v>update names set fix_price =157.9 where id =6155;</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="15">
+    <row r="86" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>315</v>
       </c>
@@ -5804,7 +6040,7 @@
         <v>update names set fix_price =180.9 where id =6156;</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="15">
+    <row r="87" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>319</v>
       </c>
@@ -5831,7 +6067,7 @@
         <v>update names set fix_price =111.3 where id =6157;</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="15">
+    <row r="88" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>323</v>
       </c>
@@ -5858,7 +6094,7 @@
         <v>update names set fix_price =202.1 where id =6158;</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="15">
+    <row r="89" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>327</v>
       </c>
@@ -5885,7 +6121,7 @@
         <v>update names set fix_price =61 where id =6241;</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="15">
+    <row r="90" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>330</v>
       </c>
@@ -5912,7 +6148,7 @@
         <v>update names set fix_price =29 where id =6242;</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="15">
+    <row r="91" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>333</v>
       </c>
@@ -5939,7 +6175,7 @@
         <v>update names set fix_price =43979 where id =6308;</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="15">
+    <row r="92" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>336</v>
       </c>
@@ -5966,7 +6202,7 @@
         <v>update names set fix_price =13 where id =6309;</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="15">
+    <row r="93" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>339</v>
       </c>
@@ -5993,7 +6229,7 @@
         <v>update names set fix_price =16 where id =6310;</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="15">
+    <row r="94" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>342</v>
       </c>
@@ -6020,7 +6256,7 @@
         <v>update names set fix_price =43860 where id =6311;</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="15">
+    <row r="95" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>345</v>
       </c>
@@ -6047,7 +6283,7 @@
         <v>update names set fix_price =43908 where id =6312;</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="15">
+    <row r="96" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>348</v>
       </c>
@@ -6074,7 +6310,7 @@
         <v>update names set fix_price =39.4 where id =6313;</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="15">
+    <row r="97" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>352</v>
       </c>
@@ -6101,7 +6337,7 @@
         <v>update names set fix_price =35.4 where id =6314;</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="15">
+    <row r="98" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>356</v>
       </c>
@@ -6128,7 +6364,7 @@
         <v>update names set fix_price =27973 where id =6315;</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="15">
+    <row r="99" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>359</v>
       </c>
@@ -6155,7 +6391,7 @@
         <v>update names set fix_price =44081 where id =6316;</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="15">
+    <row r="100" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
         <v>362</v>
       </c>
@@ -6182,7 +6418,7 @@
         <v>update names set fix_price =32 where id =6317;</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="15">
+    <row r="101" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
         <v>365</v>
       </c>
@@ -6209,7 +6445,7 @@
         <v>update names set fix_price =44082 where id =6318;</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="15">
+    <row r="102" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
         <v>368</v>
       </c>
@@ -6236,7 +6472,7 @@
         <v>update names set fix_price =17 where id =6319;</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="15">
+    <row r="103" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>371</v>
       </c>
@@ -6263,7 +6499,7 @@
         <v>update names set fix_price =48.4 where id =6476;</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="15">
+    <row r="104" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>375</v>
       </c>
@@ -6290,7 +6526,7 @@
         <v>update names set fix_price =33.7 where id =6477;</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="15">
+    <row r="105" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
         <v>379</v>
       </c>
@@ -6317,7 +6553,7 @@
         <v>update names set fix_price =699.8 where id =6546;</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="15">
+    <row r="106" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>80</v>
       </c>
@@ -6344,7 +6580,7 @@
         <v>update names set fix_price =990 where id =6735;</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="15">
+    <row r="107" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
         <v>385</v>
       </c>
@@ -6371,7 +6607,7 @@
         <v>update names set fix_price =990 where id =6736;</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15">
+    <row r="108" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
         <v>388</v>
       </c>
@@ -6398,7 +6634,7 @@
         <v>update names set fix_price =90.5 where id =6921;</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="15">
+    <row r="109" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>391</v>
       </c>
@@ -6425,7 +6661,7 @@
         <v>update names set fix_price =439.25 where id =6922;</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="15">
+    <row r="110" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>395</v>
       </c>
@@ -6452,7 +6688,7 @@
         <v>update names set fix_price =307 where id =7161;</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15">
+    <row r="111" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
         <v>398</v>
       </c>
@@ -6479,7 +6715,7 @@
         <v>update names set fix_price =403 where id =7162;</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15">
+    <row r="112" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
         <v>76</v>
       </c>
@@ -6506,7 +6742,7 @@
         <v>update names set fix_price =119 where id =7338;</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="15">
+    <row r="113" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>403</v>
       </c>
@@ -6533,7 +6769,7 @@
         <v>update names set fix_price =33.3 where id =7526;</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="15">
+    <row r="114" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
         <v>407</v>
       </c>
@@ -6560,7 +6796,7 @@
         <v>update names set fix_price =40 where id =7527;</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="15">
+    <row r="115" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B115" s="3" t="s">
         <v>410</v>
       </c>
@@ -6587,7 +6823,7 @@
         <v>update names set fix_price =45 where id =7528;</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="15">
+    <row r="116" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
         <v>44</v>
       </c>
@@ -6614,7 +6850,7 @@
         <v>update names set fix_price =593.1 where id =7649;</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="15">
+    <row r="117" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>416</v>
       </c>
@@ -6641,7 +6877,7 @@
         <v>update names set fix_price =1412.8 where id =7650;</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="15">
+    <row r="118" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
         <v>420</v>
       </c>
@@ -6668,7 +6904,7 @@
         <v>update names set fix_price =1100 where id =7883;</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="15">
+    <row r="119" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
         <v>423</v>
       </c>
@@ -6695,7 +6931,7 @@
         <v>update names set fix_price =730 where id =7885;</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="15">
+    <row r="120" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
         <v>426</v>
       </c>
@@ -6722,7 +6958,7 @@
         <v>update names set fix_price =225.65 where id =8036;</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="15">
+    <row r="121" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
         <v>430</v>
       </c>
@@ -6749,7 +6985,7 @@
         <v>update names set fix_price =223 where id =8037;</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="15">
+    <row r="122" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>433</v>
       </c>
@@ -6776,7 +7012,7 @@
         <v>update names set fix_price =124 where id =8038;</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="15">
+    <row r="123" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B123" s="3" t="s">
         <v>436</v>
       </c>
@@ -6803,7 +7039,7 @@
         <v>update names set fix_price =314 where id =8040;</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="15">
+    <row r="124" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
         <v>439</v>
       </c>
@@ -6830,7 +7066,7 @@
         <v>update names set fix_price =250.1 where id =8041;</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="15">
+    <row r="125" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
         <v>443</v>
       </c>
@@ -6857,7 +7093,7 @@
         <v>update names set fix_price =299 where id =8042;</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="15">
+    <row r="126" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B126" s="3" t="s">
         <v>446</v>
       </c>
@@ -6884,7 +7120,7 @@
         <v>update names set fix_price =220.7 where id =8043;</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="15">
+    <row r="127" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>450</v>
       </c>
@@ -6911,7 +7147,7 @@
         <v>update names set fix_price =418.2 where id =8460;</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="15">
+    <row r="128" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B128" s="3" t="s">
         <v>454</v>
       </c>
@@ -6938,7 +7174,7 @@
         <v>update names set fix_price =121.5 where id =8959;</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="15">
+    <row r="129" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
         <v>458</v>
       </c>
@@ -6965,7 +7201,7 @@
         <v>update names set fix_price =150.5 where id =8960;</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="15">
+    <row r="130" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>462</v>
       </c>
@@ -6992,7 +7228,7 @@
         <v>update names set fix_price =171 where id =8961;</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="15">
+    <row r="131" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
         <v>465</v>
       </c>
@@ -7019,7 +7255,7 @@
         <v>update names set fix_price =200.85 where id =8962;</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="15">
+    <row r="132" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
         <v>469</v>
       </c>
@@ -7046,7 +7282,7 @@
         <v>update names set fix_price =89.9 where id =8963;</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="15">
+    <row r="133" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>473</v>
       </c>
@@ -7073,7 +7309,7 @@
         <v>update names set fix_price =114.7 where id =8964;</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="15">
+    <row r="134" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
         <v>477</v>
       </c>
@@ -7100,7 +7336,7 @@
         <v>update names set fix_price =965.6 where id =9072;</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="15">
+    <row r="135" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
         <v>481</v>
       </c>
@@ -7127,7 +7363,7 @@
         <v>update names set fix_price =112.2 where id =9200;</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="15">
+    <row r="136" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>485</v>
       </c>
@@ -7154,7 +7390,7 @@
         <v>update names set fix_price =44089 where id =9387;</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="15">
+    <row r="137" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
         <v>488</v>
       </c>
@@ -7181,7 +7417,7 @@
         <v>update names set fix_price =147 where id =9389;</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="15">
+    <row r="138" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
         <v>491</v>
       </c>
@@ -7208,7 +7444,7 @@
         <v>update names set fix_price =198.05 where id =9390;</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="15">
+    <row r="139" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
         <v>495</v>
       </c>
@@ -7235,7 +7471,7 @@
         <v>update names set fix_price =43899 where id =9392;</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="15">
+    <row r="140" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B140" s="3" t="s">
         <v>498</v>
       </c>
@@ -7262,7 +7498,7 @@
         <v>update names set fix_price =64.7 where id =9393;</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="15">
+    <row r="141" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B141" s="3" t="s">
         <v>502</v>
       </c>
@@ -7289,7 +7525,7 @@
         <v>update names set fix_price =43908 where id =9394;</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="15">
+    <row r="142" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
         <v>505</v>
       </c>
@@ -7316,7 +7552,7 @@
         <v>update names set fix_price =118.2 where id =9783;</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="15">
+    <row r="143" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B143" s="3" t="s">
         <v>509</v>
       </c>
@@ -7343,7 +7579,7 @@
         <v>update names set fix_price =106.7 where id =10017;</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="15">
+    <row r="144" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B144" s="3" t="s">
         <v>513</v>
       </c>
@@ -7370,7 +7606,7 @@
         <v>update names set fix_price =154 where id =10018;</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="15">
+    <row r="145" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
         <v>84</v>
       </c>
@@ -7397,7 +7633,7 @@
         <v>update names set fix_price =122.45 where id =10020;</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="15">
+    <row r="146" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B146" s="3" t="s">
         <v>519</v>
       </c>
@@ -7424,7 +7660,7 @@
         <v>update names set fix_price =89 where id =10021;</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="15">
+    <row r="147" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B147" s="3" t="s">
         <v>522</v>
       </c>
@@ -7451,7 +7687,7 @@
         <v>update names set fix_price =60.26 where id =10022;</v>
       </c>
     </row>
-    <row r="148" spans="2:9" ht="15">
+    <row r="148" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
         <v>526</v>
       </c>
@@ -7478,7 +7714,7 @@
         <v>update names set fix_price =76 where id =10023;</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="15">
+    <row r="149" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B149" s="3" t="s">
         <v>529</v>
       </c>
@@ -7505,7 +7741,7 @@
         <v>update names set fix_price =94.5 where id =10024;</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="15">
+    <row r="150" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
         <v>533</v>
       </c>
@@ -7532,7 +7768,7 @@
         <v>update names set fix_price =82 where id =10194;</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="15">
+    <row r="151" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
         <v>25</v>
       </c>
@@ -7559,7 +7795,7 @@
         <v>update names set fix_price =180 where id =10372;</v>
       </c>
     </row>
-    <row r="152" spans="2:9" ht="15">
+    <row r="152" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B152" s="3" t="s">
         <v>537</v>
       </c>
@@ -7586,7 +7822,7 @@
         <v>update names set fix_price =126 where id =10533;</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="15">
+    <row r="153" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B153" s="3" t="s">
         <v>540</v>
       </c>
@@ -7613,7 +7849,7 @@
         <v>update names set fix_price =2095 where id =10596;</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="15">
+    <row r="154" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
         <v>543</v>
       </c>
@@ -7640,7 +7876,7 @@
         <v>update names set fix_price =133.51 where id =10663;</v>
       </c>
     </row>
-    <row r="155" spans="2:9" ht="15">
+    <row r="155" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B155" s="3" t="s">
         <v>547</v>
       </c>
@@ -7667,7 +7903,7 @@
         <v>update names set fix_price =150.6 where id =10664;</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="15">
+    <row r="156" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B156" s="3" t="s">
         <v>551</v>
       </c>
@@ -7694,7 +7930,7 @@
         <v>update names set fix_price =518.4 where id =10790;</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="15">
+    <row r="157" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
         <v>555</v>
       </c>
@@ -7721,7 +7957,7 @@
         <v>update names set fix_price =442 where id =11368;</v>
       </c>
     </row>
-    <row r="158" spans="2:9" ht="15">
+    <row r="158" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B158" s="3" t="s">
         <v>558</v>
       </c>
@@ -7748,7 +7984,7 @@
         <v>update names set fix_price =122.8 where id =11690;</v>
       </c>
     </row>
-    <row r="159" spans="2:9" ht="15">
+    <row r="159" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
         <v>562</v>
       </c>
@@ -7775,7 +8011,7 @@
         <v>update names set fix_price =111.5 where id =11980;</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="15">
+    <row r="160" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
         <v>565</v>
       </c>
@@ -7802,7 +8038,7 @@
         <v>update names set fix_price =1103.9 where id =12241;</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="15">
+    <row r="161" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
         <v>569</v>
       </c>
@@ -7829,7 +8065,7 @@
         <v>update names set fix_price =121.28 where id =12697;</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="15">
+    <row r="162" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B162" s="3" t="s">
         <v>573</v>
       </c>
@@ -7856,7 +8092,7 @@
         <v>update names set fix_price =425 where id =12789;</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="15">
+    <row r="163" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B163" s="3" t="s">
         <v>576</v>
       </c>
@@ -7883,7 +8119,7 @@
         <v>update names set fix_price =517.8 where id =12999;</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="15">
+    <row r="164" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B164" s="3" t="s">
         <v>580</v>
       </c>
@@ -7910,7 +8146,7 @@
         <v>update names set fix_price =1320 where id =13779;</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="15">
+    <row r="165" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B165" s="3" t="s">
         <v>88</v>
       </c>
@@ -7937,7 +8173,7 @@
         <v>update names set fix_price =94266 where id =13815;</v>
       </c>
     </row>
-    <row r="166" spans="2:9" ht="15">
+    <row r="166" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B166" s="3" t="s">
         <v>585</v>
       </c>
@@ -7964,7 +8200,7 @@
         <v>update names set fix_price =314 where id =13864;</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="15">
+    <row r="167" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
         <v>588</v>
       </c>
@@ -7991,7 +8227,7 @@
         <v>update names set fix_price =353.9 where id =13865;</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="15">
+    <row r="168" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B168" s="3" t="s">
         <v>592</v>
       </c>
@@ -8018,7 +8254,7 @@
         <v>update names set fix_price =142.7 where id =14263;</v>
       </c>
     </row>
-    <row r="169" spans="2:9" ht="15">
+    <row r="169" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B169" s="3" t="s">
         <v>596</v>
       </c>
@@ -8045,7 +8281,7 @@
         <v>update names set fix_price =14366 where id =14366;</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="15">
+    <row r="170" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
         <v>599</v>
       </c>
@@ -8072,7 +8308,7 @@
         <v>update names set fix_price =226.7 where id =14662;</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="15">
+    <row r="171" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
         <v>603</v>
       </c>
@@ -8099,7 +8335,7 @@
         <v>update names set fix_price =317.5 where id =16341;</v>
       </c>
     </row>
-    <row r="172" spans="2:9" ht="15">
+    <row r="172" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B172" s="3" t="s">
         <v>607</v>
       </c>
@@ -8126,7 +8362,7 @@
         <v>update names set fix_price =213.25 where id =16373;</v>
       </c>
     </row>
-    <row r="173" spans="2:9" ht="15">
+    <row r="173" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
         <v>611</v>
       </c>
@@ -8153,7 +8389,7 @@
         <v>update names set fix_price =116.9 where id =16374;</v>
       </c>
     </row>
-    <row r="174" spans="2:9" ht="15">
+    <row r="174" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B174" s="3" t="s">
         <v>615</v>
       </c>
@@ -8180,7 +8416,7 @@
         <v>update names set fix_price =129.1 where id =16494;</v>
       </c>
     </row>
-    <row r="175" spans="2:9" ht="15">
+    <row r="175" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B175" s="3" t="s">
         <v>619</v>
       </c>
@@ -8207,7 +8443,7 @@
         <v>update names set fix_price =930 where id =16692;</v>
       </c>
     </row>
-    <row r="176" spans="2:9" ht="15">
+    <row r="176" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B176" s="3" t="s">
         <v>622</v>
       </c>
@@ -8234,7 +8470,7 @@
         <v>update names set fix_price =153.3 where id =16782;</v>
       </c>
     </row>
-    <row r="177" spans="2:9" ht="15">
+    <row r="177" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B177" s="3" t="s">
         <v>626</v>
       </c>
@@ -8261,7 +8497,7 @@
         <v>update names set fix_price =2242.8 where id =16828;</v>
       </c>
     </row>
-    <row r="178" spans="2:9" ht="15">
+    <row r="178" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B178" s="3" t="s">
         <v>629</v>
       </c>
@@ -8288,7 +8524,7 @@
         <v>update names set fix_price =100.5 where id =17041;</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="15">
+    <row r="179" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B179" s="3" t="s">
         <v>633</v>
       </c>
@@ -8315,7 +8551,7 @@
         <v>update names set fix_price =121.1 where id =17223;</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="15">
+    <row r="180" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B180" s="3" t="s">
         <v>637</v>
       </c>
@@ -8342,7 +8578,7 @@
         <v>update names set fix_price =585 where id =17477;</v>
       </c>
     </row>
-    <row r="181" spans="2:9" ht="15">
+    <row r="181" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B181" s="3" t="s">
         <v>640</v>
       </c>
@@ -8369,7 +8605,7 @@
         <v>update names set fix_price =36 where id =17504;</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="15">
+    <row r="182" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B182" s="3" t="s">
         <v>643</v>
       </c>
@@ -8396,7 +8632,7 @@
         <v>update names set fix_price =1223.5 where id =17705;</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="15">
+    <row r="183" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B183" s="3" t="s">
         <v>647</v>
       </c>
@@ -8423,7 +8659,7 @@
         <v>update names set fix_price =145.85 where id =17912;</v>
       </c>
     </row>
-    <row r="184" spans="2:9" ht="15">
+    <row r="184" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B184" s="3" t="s">
         <v>651</v>
       </c>
@@ -8450,7 +8686,7 @@
         <v>update names set fix_price =876.1 where id =18293;</v>
       </c>
     </row>
-    <row r="185" spans="2:9" ht="15">
+    <row r="185" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B185" s="3" t="s">
         <v>655</v>
       </c>
@@ -8477,7 +8713,7 @@
         <v>update names set fix_price =650 where id =18351;</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="15">
+    <row r="186" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B186" s="3" t="s">
         <v>658</v>
       </c>
@@ -8504,7 +8740,7 @@
         <v>update names set fix_price =108.5 where id =18594;</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="15">
+    <row r="187" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B187" s="3" t="s">
         <v>662</v>
       </c>
@@ -8531,7 +8767,7 @@
         <v>update names set fix_price =279 where id =18698;</v>
       </c>
     </row>
-    <row r="188" spans="2:9" ht="15">
+    <row r="188" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B188" s="3" t="s">
         <v>664</v>
       </c>
@@ -8558,7 +8794,7 @@
         <v>update names set fix_price =43998 where id =18699;</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="15">
+    <row r="189" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B189" s="3" t="s">
         <v>666</v>
       </c>
@@ -8585,7 +8821,7 @@
         <v>update names set fix_price =91.1 where id =18700;</v>
       </c>
     </row>
-    <row r="190" spans="2:9" ht="15">
+    <row r="190" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B190" s="3" t="s">
         <v>670</v>
       </c>
@@ -8612,7 +8848,7 @@
         <v>update names set fix_price =87.7 where id =18702;</v>
       </c>
     </row>
-    <row r="191" spans="2:9" ht="15">
+    <row r="191" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B191" s="3" t="s">
         <v>674</v>
       </c>
@@ -8639,7 +8875,7 @@
         <v>update names set fix_price =184.25 where id =18707;</v>
       </c>
     </row>
-    <row r="192" spans="2:9" ht="15">
+    <row r="192" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B192" s="3" t="s">
         <v>678</v>
       </c>
@@ -8666,7 +8902,7 @@
         <v>update names set fix_price =120.6 where id =18721;</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="15">
+    <row r="193" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B193" s="3" t="s">
         <v>681</v>
       </c>
@@ -8693,7 +8929,7 @@
         <v>update names set fix_price =147.5 where id =18723;</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="15">
+    <row r="194" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B194" s="3" t="s">
         <v>684</v>
       </c>
@@ -8720,7 +8956,7 @@
         <v>update names set fix_price =108.6 where id =18729;</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="15">
+    <row r="195" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B195" s="3" t="s">
         <v>688</v>
       </c>
@@ -8747,7 +8983,7 @@
         <v>update names set fix_price =110.9 where id =18738;</v>
       </c>
     </row>
-    <row r="196" spans="2:9" ht="15">
+    <row r="196" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B196" s="3" t="s">
         <v>692</v>
       </c>
@@ -8774,7 +9010,7 @@
         <v>update names set fix_price =300.8 where id =18755;</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="15">
+    <row r="197" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B197" s="3" t="s">
         <v>695</v>
       </c>
@@ -8801,7 +9037,7 @@
         <v>update names set fix_price =213.8 where id =18757;</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="15">
+    <row r="198" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
         <v>698</v>
       </c>
@@ -8828,7 +9064,7 @@
         <v>update names set fix_price =81.6 where id =18766;</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="15">
+    <row r="199" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B199" s="3" t="s">
         <v>701</v>
       </c>
@@ -8855,7 +9091,7 @@
         <v>update names set fix_price =213.25 where id =18773;</v>
       </c>
     </row>
-    <row r="200" spans="2:9" ht="15">
+    <row r="200" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B200" s="3" t="s">
         <v>703</v>
       </c>
@@ -8882,7 +9118,7 @@
         <v>update names set fix_price =112.8 where id =18788;</v>
       </c>
     </row>
-    <row r="201" spans="2:9" ht="15">
+    <row r="201" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B201" s="3" t="s">
         <v>706</v>
       </c>
@@ -8909,7 +9145,7 @@
         <v>update names set fix_price =62.9 where id =18842;</v>
       </c>
     </row>
-    <row r="202" spans="2:9" ht="15">
+    <row r="202" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B202" s="3" t="s">
         <v>710</v>
       </c>
@@ -8936,7 +9172,7 @@
         <v>update names set fix_price =45.3 where id =18846;</v>
       </c>
     </row>
-    <row r="203" spans="2:9" ht="15">
+    <row r="203" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B203" s="3" t="s">
         <v>714</v>
       </c>
@@ -8963,7 +9199,7 @@
         <v>update names set fix_price =128.5 where id =18848;</v>
       </c>
     </row>
-    <row r="204" spans="2:9" ht="15">
+    <row r="204" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B204" s="3" t="s">
         <v>718</v>
       </c>
@@ -8990,7 +9226,7 @@
         <v>update names set fix_price =145.15 where id =18866;</v>
       </c>
     </row>
-    <row r="205" spans="2:9" ht="15">
+    <row r="205" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B205" s="3" t="s">
         <v>721</v>
       </c>
@@ -9017,7 +9253,7 @@
         <v>update names set fix_price =149.65 where id =18898;</v>
       </c>
     </row>
-    <row r="206" spans="2:9" ht="15">
+    <row r="206" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B206" s="3" t="s">
         <v>724</v>
       </c>
@@ -9044,7 +9280,7 @@
         <v>update names set fix_price =97.8 where id =18903;</v>
       </c>
     </row>
-    <row r="207" spans="2:9" ht="15">
+    <row r="207" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B207" s="3" t="s">
         <v>727</v>
       </c>
@@ -9071,7 +9307,7 @@
         <v>update names set fix_price =32.5 where id =18913;</v>
       </c>
     </row>
-    <row r="208" spans="2:9" ht="15">
+    <row r="208" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B208" s="3" t="s">
         <v>731</v>
       </c>
@@ -9098,7 +9334,7 @@
         <v>update names set fix_price =165.7 where id =18932;</v>
       </c>
     </row>
-    <row r="209" spans="2:9" ht="15">
+    <row r="209" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B209" s="3" t="s">
         <v>734</v>
       </c>
@@ -9125,7 +9361,7 @@
         <v>update names set fix_price =54.2 where id =18933;</v>
       </c>
     </row>
-    <row r="210" spans="2:9" ht="15">
+    <row r="210" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B210" s="3" t="s">
         <v>738</v>
       </c>
@@ -9152,7 +9388,7 @@
         <v>update names set fix_price =123.2 where id =18934;</v>
       </c>
     </row>
-    <row r="211" spans="2:9" ht="15">
+    <row r="211" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B211" s="3" t="s">
         <v>741</v>
       </c>
@@ -9179,7 +9415,7 @@
         <v>update names set fix_price =243 where id =18936;</v>
       </c>
     </row>
-    <row r="212" spans="2:9" ht="15">
+    <row r="212" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B212" s="3" t="s">
         <v>743</v>
       </c>
@@ -9206,7 +9442,7 @@
         <v>update names set fix_price =135.8 where id =18961;</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="15">
+    <row r="213" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B213" s="3" t="s">
         <v>747</v>
       </c>
@@ -9233,7 +9469,7 @@
         <v>update names set fix_price =44027 where id =18965;</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="15">
+    <row r="214" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B214" s="3" t="s">
         <v>750</v>
       </c>
@@ -9260,7 +9496,7 @@
         <v>update names set fix_price =120.55 where id =18966;</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="15">
+    <row r="215" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B215" s="3" t="s">
         <v>754</v>
       </c>
@@ -9287,7 +9523,7 @@
         <v>update names set fix_price =198.5 where id =18967;</v>
       </c>
     </row>
-    <row r="216" spans="2:9" ht="15">
+    <row r="216" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B216" s="3" t="s">
         <v>758</v>
       </c>
@@ -9314,7 +9550,7 @@
         <v>update names set fix_price =197.25 where id =18971;</v>
       </c>
     </row>
-    <row r="217" spans="2:9" ht="15">
+    <row r="217" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B217" s="3" t="s">
         <v>761</v>
       </c>
@@ -9341,7 +9577,7 @@
         <v>update names set fix_price =43931 where id =18985;</v>
       </c>
     </row>
-    <row r="218" spans="2:9" ht="15">
+    <row r="218" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B218" s="3" t="s">
         <v>764</v>
       </c>
@@ -9368,7 +9604,7 @@
         <v>update names set fix_price =114.5 where id =19008;</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="15">
+    <row r="219" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B219" s="3" t="s">
         <v>768</v>
       </c>
@@ -9395,7 +9631,7 @@
         <v>update names set fix_price =417.45 where id =19045;</v>
       </c>
     </row>
-    <row r="220" spans="2:9" ht="15">
+    <row r="220" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B220" s="3" t="s">
         <v>772</v>
       </c>
@@ -9422,7 +9658,7 @@
         <v>update names set fix_price =141.1 where id =19049;</v>
       </c>
     </row>
-    <row r="221" spans="2:9" ht="15">
+    <row r="221" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B221" s="3" t="s">
         <v>776</v>
       </c>
@@ -9449,7 +9685,7 @@
         <v>update names set fix_price =303.5 where id =19117;</v>
       </c>
     </row>
-    <row r="222" spans="2:9" ht="15">
+    <row r="222" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B222" s="3" t="s">
         <v>780</v>
       </c>
@@ -9476,7 +9712,7 @@
         <v>update names set fix_price =101.5 where id =19118;</v>
       </c>
     </row>
-    <row r="223" spans="2:9" ht="15">
+    <row r="223" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B223" s="3" t="s">
         <v>783</v>
       </c>
@@ -9503,7 +9739,7 @@
         <v>update names set fix_price =108.9 where id =19120;</v>
       </c>
     </row>
-    <row r="224" spans="2:9" ht="15">
+    <row r="224" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B224" s="3" t="s">
         <v>787</v>
       </c>
@@ -9530,7 +9766,7 @@
         <v>update names set fix_price =122.25 where id =19131;</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="15">
+    <row r="225" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B225" s="3" t="s">
         <v>791</v>
       </c>
@@ -9557,7 +9793,7 @@
         <v>update names set fix_price =141.75 where id =19214;</v>
       </c>
     </row>
-    <row r="226" spans="2:9" ht="15">
+    <row r="226" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B226" s="3" t="s">
         <v>795</v>
       </c>
@@ -9584,7 +9820,7 @@
         <v>update names set fix_price =236.9 where id =19238;</v>
       </c>
     </row>
-    <row r="227" spans="2:9" ht="15">
+    <row r="227" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B227" s="3" t="s">
         <v>798</v>
       </c>
@@ -9611,7 +9847,7 @@
         <v>update names set fix_price =128.9 where id =19258;</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="15">
+    <row r="228" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B228" s="3" t="s">
         <v>801</v>
       </c>
@@ -9638,7 +9874,7 @@
         <v>update names set fix_price =899 where id =19264;</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="15">
+    <row r="229" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B229" s="3" t="s">
         <v>804</v>
       </c>
@@ -9665,7 +9901,7 @@
         <v>update names set fix_price =94 where id =19266;</v>
       </c>
     </row>
-    <row r="230" spans="2:9" ht="15">
+    <row r="230" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B230" s="3" t="s">
         <v>464</v>
       </c>
@@ -9692,7 +9928,7 @@
         <v>update names set fix_price =43977 where id =19276;</v>
       </c>
     </row>
-    <row r="231" spans="2:9" ht="15">
+    <row r="231" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B231" s="3" t="s">
         <v>808</v>
       </c>
@@ -9719,7 +9955,7 @@
         <v>update names set fix_price =214.5 where id =19278;</v>
       </c>
     </row>
-    <row r="232" spans="2:9" ht="15">
+    <row r="232" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B232" s="3" t="s">
         <v>811</v>
       </c>
@@ -9746,7 +9982,7 @@
         <v>update names set fix_price =712 where id =19302;</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="15">
+    <row r="233" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B233" s="3" t="s">
         <v>814</v>
       </c>
@@ -9773,7 +10009,7 @@
         <v>update names set fix_price =181.55 where id =19315;</v>
       </c>
     </row>
-    <row r="234" spans="2:9" ht="15">
+    <row r="234" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B234" s="3" t="s">
         <v>818</v>
       </c>
